--- a/projects/test_building/input/Scenario_EnergyCarrier_EmissionFactor.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_EmissionFactor.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D0E2F-161D-C94C-B9B4-BBA1034CDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2214EC-A1AF-444A-AED9-04728E63CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21400" yWindow="-10660" windowWidth="20100" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -170,15 +169,6 @@
   </si>
   <si>
     <t>id_scenario</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>electricity emission considered</t>
-  </si>
-  <si>
-    <t>electricity emission not considered</t>
   </si>
 </sst>
 </file>
@@ -654,8 +644,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS55" totalsRowShown="0">
-  <autoFilter ref="A1:AS55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS28" totalsRowShown="0">
+  <autoFilter ref="A1:AS28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="45">
     <tableColumn id="6" xr3:uid="{9352D49A-984B-8F43-88AC-058CF01CD45A}" name="id_scenario"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_region"/>
@@ -970,15 +960,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS55"/>
+  <dimension ref="A1:AS28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="46" width="10.83203125" customWidth="1"/>
   </cols>
@@ -1134,127 +1126,127 @@
         <v>44</v>
       </c>
       <c r="E2" s="2">
-        <v>4.7159999962272E-4</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>4.7519999961984002E-4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>4.7879999961696003E-4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>4.8239999961407999E-4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>4.859999996112E-4</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>4.8959999960832001E-4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>4.9607999960313601E-4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>5.0255999959795202E-4</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>5.0903999959276802E-4</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>5.1551999958758391E-4</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>5.2199999958239991E-4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>5.2415999958067199E-4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>5.2631999957894395E-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>5.2847999957721602E-4</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2">
-        <v>5.3063999957548799E-4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2">
-        <v>5.3279999957375995E-4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2">
-        <v>5.27759999577792E-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2">
-        <v>5.2271999958182394E-4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2">
-        <v>5.1767999958585598E-4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2">
-        <v>5.1263999958988792E-4</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="2">
-        <v>5.0759999959391997E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -4816,3705 +4808,6 @@
         <v>0</v>
       </c>
       <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
-        <v>0</v>
-      </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="K30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="L30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="M30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="N30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="O30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="P30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="R30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="S30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="T30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="U30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="V30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="W30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="X30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AF30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AI30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AJ30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AK30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>2.6639999978687998E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="H31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="I31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="J31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="K31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="L31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="M31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="N31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="O31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="P31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="R31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="S31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="T31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="U31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="V31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="W31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="X31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AF31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AG31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AH31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AI31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AJ31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AK31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>3.3839999972927996E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="H32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="I32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="J32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="K32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="L32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="M32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="N32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="O32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="P32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="R32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="S32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="T32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="U32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="V32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="W32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="X32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AE32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AF32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AG32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AH32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AI32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AJ32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AK32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AL32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AO32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AQ32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AR32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-      <c r="AS32" s="2">
-        <v>3.8879999968895998E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="F33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="H33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="I33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="J33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="K33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="L33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="M33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="N33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="O33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="P33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="R33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="S33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="T33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="U33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="V33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="W33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="X33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AF33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AG33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AI33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AJ33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AK33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AL33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AO33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>4.0319999967743998E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="G34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="H34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="I34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="K34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="L34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="M34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="N34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="O34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="P34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="R34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="S34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="T34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="U34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="V34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="W34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="X34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AE34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AF34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AG34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AI34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AJ34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AK34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AL34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AO34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AQ34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AR34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-      <c r="AS34" s="2">
-        <v>2.0159999983871999E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="F35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="G35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="H35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="I35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="J35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="K35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="L35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="M35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="N35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="O35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="P35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="R35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="S35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="T35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="U35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="V35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="W35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="X35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AF35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AG35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AI35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AJ35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AK35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AL35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AM35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AN35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AO35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AQ35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AR35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-      <c r="AS35" s="2">
-        <v>3.6359999970912E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="K36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="L36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="M36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="N36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="O36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="P36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="R36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="S36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="T36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="U36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="V36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="W36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="X36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AE36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AF36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AG36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AI36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AJ36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AK36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AL36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AO36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AQ36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AR36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-      <c r="AS36" s="2">
-        <v>2.8079999977535997E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="J37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="K37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="L37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="M37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="N37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="O37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="P37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="R37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="S37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="T37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="U37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="V37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="W37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="X37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AF37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AG37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AH37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AI37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AJ37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AK37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AL37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AO37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AR37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-      <c r="AS37" s="2">
-        <v>2.1599999982719999E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="F38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="G38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="H38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="I38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="J38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="K38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="L38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="M38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="N38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="O38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="P38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="R38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="S38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="T38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="U38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="V38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="W38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="X38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AF38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AG38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AH38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AI38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AJ38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AK38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AL38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AN38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AO38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AR38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-      <c r="AS38" s="2">
-        <v>9.3599999925119998E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="P39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="R39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="S39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="T39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="U39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="V39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="W39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="X39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AF39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AG39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AH39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AI39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AJ39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AK39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AL39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AO39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AP39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AQ39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AR39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-      <c r="AS39" s="2">
-        <v>1.6559999986751999E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-      <c r="W40" s="2">
-        <v>0</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="F41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="G41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="H41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="I41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="J41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="K41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="L41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="M41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="N41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="O41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="P41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="R41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="S41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="T41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="U41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="V41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="W41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="X41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AE41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AF41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AG41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AH41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AI41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AJ41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AK41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AL41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AM41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AN41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AO41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AP41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AQ41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AR41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-      <c r="AS41" s="2">
-        <v>3.0959999975231997E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1">
-        <v>15</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1">
-        <v>16</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1">
-        <v>17</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1">
-        <v>18</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2">
-        <v>0</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1">
-        <v>19</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2">
-        <v>0</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1">
-        <v>21</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1">
-        <v>22</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1">
-        <v>23</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
-        <v>0</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>9</v>
-      </c>
-      <c r="C52" s="1">
-        <v>24</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2">
-        <v>0</v>
-      </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2">
-        <v>0</v>
-      </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1">
-        <v>25</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>0</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2">
-        <v>0</v>
-      </c>
-      <c r="W53" s="2">
-        <v>0</v>
-      </c>
-      <c r="X53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1">
-        <v>26</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2">
-        <v>0</v>
-      </c>
-      <c r="X54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1">
-        <v>27</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2">
-        <v>0</v>
-      </c>
-      <c r="X55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS55" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8525,46 +4818,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F065D593-0A65-014E-889C-A1B99319BC58}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_EmissionFactor.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_EmissionFactor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2214EC-A1AF-444A-AED9-04728E63CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670DBE6E-90B5-6E42-AA84-C6BB21F40F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -170,6 +170,9 @@
   <si>
     <t>id_scenario</t>
   </si>
+  <si>
+    <t>2051</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +229,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val=".AppleSystemUIFont"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
     <dxf>
       <font>
         <sz val="10"/>
@@ -644,54 +656,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS28" totalsRowShown="0">
-  <autoFilter ref="A1:AS28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AT28" totalsRowShown="0">
+  <autoFilter ref="A1:AT28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="46">
     <tableColumn id="6" xr3:uid="{9352D49A-984B-8F43-88AC-058CF01CD45A}" name="id_scenario"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_region"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_energy_carrier" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2010" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2011" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2012" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2013" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2014" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2015" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2016" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2017" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2018" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2019" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2020" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2021" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2022" dataDxfId="28"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2023" dataDxfId="27"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2024" dataDxfId="26"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2025" dataDxfId="25"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2026" dataDxfId="24"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2027" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2028" dataDxfId="22"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2029" dataDxfId="21"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2030" dataDxfId="20"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2031" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2032" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2033" dataDxfId="17"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2034" dataDxfId="16"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2035" dataDxfId="15"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2036" dataDxfId="14"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2037" dataDxfId="13"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2038" dataDxfId="12"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2039" dataDxfId="11"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2040" dataDxfId="10"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2041" dataDxfId="9"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2042" dataDxfId="8"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2043" dataDxfId="7"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2044" dataDxfId="6"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2045" dataDxfId="5"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2046" dataDxfId="4"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2047" dataDxfId="3"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2048" dataDxfId="2"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2049" dataDxfId="1"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2050" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_energy_carrier" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2010" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2011" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2012" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2013" dataDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2014" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2015" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2016" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2017" dataDxfId="34"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2018" dataDxfId="33"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2019" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2020" dataDxfId="31"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2021" dataDxfId="30"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2022" dataDxfId="29"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2023" dataDxfId="28"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2024" dataDxfId="27"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2025" dataDxfId="26"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2026" dataDxfId="25"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2027" dataDxfId="24"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2028" dataDxfId="23"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2029" dataDxfId="22"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2030" dataDxfId="21"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2031" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2032" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2033" dataDxfId="18"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2034" dataDxfId="17"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2035" dataDxfId="16"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2036" dataDxfId="15"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2037" dataDxfId="14"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2038" dataDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2039" dataDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2040" dataDxfId="11"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2041" dataDxfId="10"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2042" dataDxfId="9"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2043" dataDxfId="8"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2044" dataDxfId="7"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2045" dataDxfId="6"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2046" dataDxfId="5"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2047" dataDxfId="4"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2048" dataDxfId="3"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2049" dataDxfId="2"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2050" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{14B6D2E0-C275-F244-8EFF-D0B358220AB3}" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS28"/>
+  <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AW18" sqref="AW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -975,7 +988,7 @@
     <col min="5" max="46" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1111,8 +1124,11 @@
       <c r="AS1" t="s">
         <v>32</v>
       </c>
+      <c r="AT1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1248,8 +1264,11 @@
       <c r="AS2" s="2">
         <v>0</v>
       </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1385,8 +1404,11 @@
       <c r="AS3" s="2">
         <v>2.6639999978687998E-4</v>
       </c>
+      <c r="AT3" s="2">
+        <v>2.6639999978687998E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1522,8 +1544,11 @@
       <c r="AS4" s="2">
         <v>3.3839999972927996E-4</v>
       </c>
+      <c r="AT4" s="2">
+        <v>3.3839999972927996E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:46">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1659,8 +1684,11 @@
       <c r="AS5" s="2">
         <v>3.8879999968895998E-4</v>
       </c>
+      <c r="AT5" s="2">
+        <v>3.8879999968895998E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:46">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1796,8 +1824,11 @@
       <c r="AS6" s="2">
         <v>4.0319999967743998E-4</v>
       </c>
+      <c r="AT6" s="2">
+        <v>4.0319999967743998E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:46">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1933,8 +1964,11 @@
       <c r="AS7" s="2">
         <v>2.0159999983871999E-4</v>
       </c>
+      <c r="AT7" s="2">
+        <v>2.0159999983871999E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:46">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2070,8 +2104,11 @@
       <c r="AS8" s="2">
         <v>3.6359999970912E-4</v>
       </c>
+      <c r="AT8" s="2">
+        <v>3.6359999970912E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:46">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2207,8 +2244,11 @@
       <c r="AS9" s="2">
         <v>2.8079999977535997E-4</v>
       </c>
+      <c r="AT9" s="2">
+        <v>2.8079999977535997E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:46">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2344,8 +2384,11 @@
       <c r="AS10" s="2">
         <v>2.1599999982719999E-4</v>
       </c>
+      <c r="AT10" s="2">
+        <v>2.1599999982719999E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:46">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2481,8 +2524,11 @@
       <c r="AS11" s="2">
         <v>9.3599999925119998E-4</v>
       </c>
+      <c r="AT11" s="2">
+        <v>9.3599999925119998E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:46">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2618,8 +2664,11 @@
       <c r="AS12" s="2">
         <v>1.6559999986751999E-4</v>
       </c>
+      <c r="AT12" s="2">
+        <v>1.6559999986751999E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:46">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2755,8 +2804,11 @@
       <c r="AS13" s="2">
         <v>0</v>
       </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:46">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2892,8 +2944,11 @@
       <c r="AS14" s="2">
         <v>3.0959999975231997E-4</v>
       </c>
+      <c r="AT14" s="2">
+        <v>3.0959999975231997E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:46">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3029,8 +3084,11 @@
       <c r="AS15" s="2">
         <v>0</v>
       </c>
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:46">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3166,8 +3224,11 @@
       <c r="AS16" s="2">
         <v>0</v>
       </c>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:46">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3303,8 +3364,11 @@
       <c r="AS17" s="2">
         <v>0</v>
       </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:46">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3440,8 +3504,11 @@
       <c r="AS18" s="2">
         <v>0</v>
       </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:46">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3577,8 +3644,11 @@
       <c r="AS19" s="2">
         <v>0</v>
       </c>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:46">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3714,8 +3784,11 @@
       <c r="AS20" s="2">
         <v>0</v>
       </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:46">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3851,8 +3924,11 @@
       <c r="AS21" s="2">
         <v>0</v>
       </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:46">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3988,8 +4064,11 @@
       <c r="AS22" s="2">
         <v>0</v>
       </c>
+      <c r="AT22" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:46">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4125,8 +4204,11 @@
       <c r="AS23" s="2">
         <v>0</v>
       </c>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:46">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4262,8 +4344,11 @@
       <c r="AS24" s="2">
         <v>0</v>
       </c>
+      <c r="AT24" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:46">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4399,8 +4484,11 @@
       <c r="AS25" s="2">
         <v>0</v>
       </c>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:46">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4536,8 +4624,11 @@
       <c r="AS26" s="2">
         <v>0</v>
       </c>
+      <c r="AT26" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:46">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4673,8 +4764,11 @@
       <c r="AS27" s="2">
         <v>0</v>
       </c>
+      <c r="AT27" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:46">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4808,6 +4902,9 @@
         <v>0</v>
       </c>
       <c r="AS28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="2">
         <v>0</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_EnergyCarrier_EmissionFactor.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_EmissionFactor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670DBE6E-90B5-6E42-AA84-C6BB21F40F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -656,55 +655,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AT28" totalsRowShown="0">
-  <autoFilter ref="A1:AT28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AT28" totalsRowShown="0">
+  <autoFilter ref="A1:AT28"/>
   <tableColumns count="46">
-    <tableColumn id="6" xr3:uid="{9352D49A-984B-8F43-88AC-058CF01CD45A}" name="id_scenario"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_region"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_energy_carrier" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2010" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2011" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2012" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2013" dataDxfId="38"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2014" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2015" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2016" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2017" dataDxfId="34"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2018" dataDxfId="33"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2019" dataDxfId="32"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2020" dataDxfId="31"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2021" dataDxfId="30"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2022" dataDxfId="29"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2023" dataDxfId="28"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2024" dataDxfId="27"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2025" dataDxfId="26"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2026" dataDxfId="25"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2027" dataDxfId="24"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2028" dataDxfId="23"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2029" dataDxfId="22"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2030" dataDxfId="21"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2031" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2032" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2033" dataDxfId="18"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2034" dataDxfId="17"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2035" dataDxfId="16"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2036" dataDxfId="15"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2037" dataDxfId="14"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2038" dataDxfId="13"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2039" dataDxfId="12"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2040" dataDxfId="11"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2041" dataDxfId="10"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2042" dataDxfId="9"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2043" dataDxfId="8"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2044" dataDxfId="7"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2045" dataDxfId="6"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2046" dataDxfId="5"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2047" dataDxfId="4"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2048" dataDxfId="3"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2049" dataDxfId="2"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2050" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{14B6D2E0-C275-F244-8EFF-D0B358220AB3}" name="2051" dataDxfId="0"/>
+    <tableColumn id="6" name="id_scenario"/>
+    <tableColumn id="3" name="id_region"/>
+    <tableColumn id="1" name="id_energy_carrier" dataDxfId="43"/>
+    <tableColumn id="4" name="unit" dataDxfId="42"/>
+    <tableColumn id="16" name="2010" dataDxfId="41"/>
+    <tableColumn id="17" name="2011" dataDxfId="40"/>
+    <tableColumn id="18" name="2012" dataDxfId="39"/>
+    <tableColumn id="19" name="2013" dataDxfId="38"/>
+    <tableColumn id="20" name="2014" dataDxfId="37"/>
+    <tableColumn id="21" name="2015" dataDxfId="36"/>
+    <tableColumn id="22" name="2016" dataDxfId="35"/>
+    <tableColumn id="23" name="2017" dataDxfId="34"/>
+    <tableColumn id="24" name="2018" dataDxfId="33"/>
+    <tableColumn id="25" name="2019" dataDxfId="32"/>
+    <tableColumn id="26" name="2020" dataDxfId="31"/>
+    <tableColumn id="27" name="2021" dataDxfId="30"/>
+    <tableColumn id="28" name="2022" dataDxfId="29"/>
+    <tableColumn id="29" name="2023" dataDxfId="28"/>
+    <tableColumn id="30" name="2024" dataDxfId="27"/>
+    <tableColumn id="31" name="2025" dataDxfId="26"/>
+    <tableColumn id="32" name="2026" dataDxfId="25"/>
+    <tableColumn id="33" name="2027" dataDxfId="24"/>
+    <tableColumn id="34" name="2028" dataDxfId="23"/>
+    <tableColumn id="35" name="2029" dataDxfId="22"/>
+    <tableColumn id="36" name="2030" dataDxfId="21"/>
+    <tableColumn id="37" name="2031" dataDxfId="20"/>
+    <tableColumn id="2" name="2032" dataDxfId="19"/>
+    <tableColumn id="5" name="2033" dataDxfId="18"/>
+    <tableColumn id="38" name="2034" dataDxfId="17"/>
+    <tableColumn id="39" name="2035" dataDxfId="16"/>
+    <tableColumn id="40" name="2036" dataDxfId="15"/>
+    <tableColumn id="41" name="2037" dataDxfId="14"/>
+    <tableColumn id="42" name="2038" dataDxfId="13"/>
+    <tableColumn id="43" name="2039" dataDxfId="12"/>
+    <tableColumn id="44" name="2040" dataDxfId="11"/>
+    <tableColumn id="45" name="2041" dataDxfId="10"/>
+    <tableColumn id="46" name="2042" dataDxfId="9"/>
+    <tableColumn id="47" name="2043" dataDxfId="8"/>
+    <tableColumn id="48" name="2044" dataDxfId="7"/>
+    <tableColumn id="49" name="2045" dataDxfId="6"/>
+    <tableColumn id="50" name="2046" dataDxfId="5"/>
+    <tableColumn id="51" name="2047" dataDxfId="4"/>
+    <tableColumn id="52" name="2048" dataDxfId="3"/>
+    <tableColumn id="53" name="2049" dataDxfId="2"/>
+    <tableColumn id="54" name="2050" dataDxfId="1"/>
+    <tableColumn id="7" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -972,20 +971,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AW18" sqref="AW18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="46" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="46" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
@@ -2822,130 +2821,130 @@
         <v>44</v>
       </c>
       <c r="E14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>3.0959999975231997E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46">
